--- a/cursoDeExcel/capitulo_01_aula_01.xlsx
+++ b/cursoDeExcel/capitulo_01_aula_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>aluno</t>
   </si>
@@ -63,13 +63,16 @@
   </si>
   <si>
     <t>Tarde</t>
+  </si>
+  <si>
+    <t>Relação de Alunos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +92,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -104,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,14 +123,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D9"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +444,13 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -482,6 +518,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
